--- a/paper/raw_data/revised/old_results/exp17_COMPARISON.xlsx
+++ b/paper/raw_data/revised/old_results/exp17_COMPARISON.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prodr\Desktop\MemPod\paper\raw_data\revised\old_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aprodrom\Desktop\MemPod\paper\raw_data\revised\old_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="COMPARISON" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
   <si>
     <t>DDR41600</t>
   </si>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -216,16 +216,16 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -252,7 +252,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="dk1">
+                <a:tint val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -457,7 +459,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A766-471D-870C-85FF9BCAEE12}"/>
             </c:ext>
@@ -479,462 +481,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>COMPARISON!$K$3:$K$32</c:f>
-              <c:strCache>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>astar</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>bwaves</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>bzip</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>cactus</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>dealII</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>gcc</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>gems</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>lbm</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>leslie</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>libquantum</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>omnetpp</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>soplex</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>sphinx</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>xalanc</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>zeusmp</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>mix1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>mix10</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>mix11</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>mix12</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>mix2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>mix3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>mix4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>mix5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>mix6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>mix7</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>mix8</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>mix9</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>AVG HG</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>AVG MIX</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>AVG ALL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>COMPARISON!$O$3:$O$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0.88057698758805769</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.9736899802674851</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.97804175665946724</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.90418353576248311</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0018020337237741</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.95533391153512581</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.030419059774516</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0374094931617055</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.96847464264734684</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0211327134404058</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.93393124065769795</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.74363188167625316</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.85477001703577515</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.95887585406729403</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.0124826629680999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.98522595596755491</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.95511811023622062</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.95911132120066167</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.91139878950907871</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.93258971871968954</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.93735103847463397</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.89008394543546698</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.87188365650969535</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.92839090143218206</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.97359471894378879</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.93197573656845767</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.96606599578750307</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.95853749391100052</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.93554531490015358</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.94907395698979125</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A766-471D-870C-85FF9BCAEE12}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>COMPARISON!$P$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MEMPOD</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>COMPARISON!$K$3:$K$32</c:f>
-              <c:strCache>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>astar</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>bwaves</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>bzip</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>cactus</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>dealII</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>gcc</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>gems</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>lbm</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>leslie</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>libquantum</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>omnetpp</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>soplex</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>sphinx</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>xalanc</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>zeusmp</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>mix1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>mix10</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>mix11</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>mix12</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>mix2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>mix3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>mix4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>mix5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>mix6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>mix7</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>mix8</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>mix9</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>AVG HG</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>AVG MIX</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>AVG ALL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>COMPARISON!$P$3:$P$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0.85005031868500502</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0784915588686692</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.76673866090712739</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.86601118180065551</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.85249066803964479</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.67085862966175203</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0482875983833229</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.73370876910699911</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.72371255140003921</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.59890109890109888</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.72406576980568005</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.58627773212818401</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.64544293015332199</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.85857934768596111</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.86477115117891823</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.86703360370799532</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.75984251968503946</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.83431812810210337</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.82229320780094151</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.83001939864209495</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.75519237316990118</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.83342077649527813</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.80286241920590951</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.75315922493681553</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.876375275055011</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.82300693240901224</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.86941259068570098</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.81518095074357444</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.82369687660010227</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.81868608954418598</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A766-471D-870C-85FF9BCAEE12}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>COMPARISON!$R$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CAMEO</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
+              <a:schemeClr val="dk1">
+                <a:tint val="98500"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -1043,6 +591,467 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>COMPARISON!$O$3:$O$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.88057698758805769</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9736899802674851</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97804175665946724</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90418353576248311</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0018020337237741</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95533391153512581</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.030419059774516</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0374094931617055</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96847464264734684</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0211327134404058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.93393124065769795</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.74363188167625316</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85477001703577515</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95887585406729403</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0124826629680999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.98522595596755491</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.95511811023622062</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95911132120066167</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.91139878950907871</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.93258971871968954</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.93735103847463397</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.89008394543546698</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.87188365650969535</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.92839090143218206</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.97359471894378879</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.93197573656845767</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.96606599578750307</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.95853749391100052</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.93554531490015358</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.94907395698979125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A766-471D-870C-85FF9BCAEE12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>COMPARISON!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MEMPOD</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>COMPARISON!$K$3:$K$32</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bwaves</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bzip</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cactus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dealII</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>gems</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>lbm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>leslie</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>soplex</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sphinx</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>xalanc</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>zeusmp</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>mix1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>mix10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>mix11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>mix12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>mix2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>mix3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>mix4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>mix5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>mix6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>mix7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>mix8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>mix9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>AVG HG</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>AVG MIX</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>AVG ALL</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>COMPARISON!$Q$3:$Q$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.85105669238510573</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0602937952203464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76673866090712739</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87449392712550611</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85261938473419996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66955767562879442</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0046798553499254</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73089300080450537</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.72332093205404346</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59932375316990705</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72735426008968596</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58668857847165157</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6450170357751277</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.8584504318679903</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.82957697642163664</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.87949015063731162</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.77165354330708669</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.82651855353344361</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.82447881640887699</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.82347235693501453</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.76847122914538646</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.83788037775445967</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.81024930747922441</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.76720022465599558</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.8839767953590717</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.86395147313691523</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.87713550198923473</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.80880540989713201</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.83238095238095233</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.81850905810846153</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A766-471D-870C-85FF9BCAEE12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>COMPARISON!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CAMEO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>COMPARISON!$K$3:$K$32</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bwaves</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bzip</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cactus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dealII</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>gems</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>lbm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>leslie</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>soplex</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sphinx</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>xalanc</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>zeusmp</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>mix1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>mix10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>mix11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>mix12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>mix2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>mix3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>mix4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>mix5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>mix6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>mix7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>mix8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>mix9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>AVG HG</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>AVG MIX</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>AVG ALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>COMPARISON!$R$3:$R$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1140,7 +1149,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-A766-471D-870C-85FF9BCAEE12}"/>
             </c:ext>
@@ -1162,8 +1171,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
+              <a:schemeClr val="dk1">
+                <a:tint val="88500"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -1369,7 +1378,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-A766-471D-870C-85FF9BCAEE12}"/>
             </c:ext>
@@ -1385,9 +1394,9 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="425027920"/>
-        <c:axId val="425029560"/>
-        <c:extLst>
+        <c:axId val="376388776"/>
+        <c:axId val="376388384"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -1395,7 +1404,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>COMPARISON!$L$2</c15:sqref>
@@ -1412,7 +1421,9 @@
                 </c:tx>
                 <c:spPr>
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:schemeClr val="dk1">
+                      <a:tint val="88500"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:ln>
                     <a:noFill/>
@@ -1422,7 +1433,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>COMPARISON!$K$3:$K$32</c15:sqref>
@@ -1526,7 +1537,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>COMPARISON!$L$3:$L$32</c15:sqref>
@@ -1629,7 +1640,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-A766-471D-870C-85FF9BCAEE12}"/>
                   </c:ext>
@@ -1642,7 +1653,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>COMPARISON!$M$2</c15:sqref>
@@ -1659,7 +1670,9 @@
                 </c:tx>
                 <c:spPr>
                   <a:solidFill>
-                    <a:schemeClr val="accent2"/>
+                    <a:schemeClr val="dk1">
+                      <a:tint val="55000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:ln>
                     <a:noFill/>
@@ -1669,7 +1682,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>COMPARISON!$K$3:$K$32</c15:sqref>
@@ -1773,7 +1786,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>COMPARISON!$M$3:$M$32</c15:sqref>
@@ -1876,7 +1889,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-A766-471D-870C-85FF9BCAEE12}"/>
                   </c:ext>
@@ -1885,28 +1898,30 @@
             </c15:filteredBarSeries>
             <c15:filteredBarSeries>
               <c15:ser>
-                <c:idx val="5"/>
-                <c:order val="5"/>
+                <c:idx val="4"/>
+                <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>COMPARISON!$Q$2</c15:sqref>
+                          <c15:sqref>COMPARISON!$P$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>MPNEW</c:v>
+                        <c:v>MPOLD</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
                   <a:solidFill>
-                    <a:schemeClr val="accent6"/>
+                    <a:schemeClr val="dk1">
+                      <a:tint val="30000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:ln>
                     <a:noFill/>
@@ -1916,7 +1931,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>COMPARISON!$K$3:$K$32</c15:sqref>
@@ -2020,10 +2035,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>COMPARISON!$Q$3:$Q$32</c15:sqref>
+                          <c15:sqref>COMPARISON!$P$3:$P$32</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2031,37 +2046,37 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="30"/>
                       <c:pt idx="0">
-                        <c:v>0.8487084870848709</c:v>
+                        <c:v>0.85005031868500502</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1.0596360447270334</c:v>
+                        <c:v>1.0784915588686692</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.76637868970482359</c:v>
+                        <c:v>0.76673866090712739</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.87584345479082326</c:v>
+                        <c:v>0.86601118180065551</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.85184708456686842</c:v>
+                        <c:v>0.85249066803964479</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.66912402428447526</c:v>
+                        <c:v>0.67085862966175203</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>1.0023399276749627</c:v>
+                        <c:v>1.0482875983833229</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>0.76669348350764277</c:v>
+                        <c:v>0.73370876910699911</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0.72136283532406509</c:v>
+                        <c:v>0.72371255140003921</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>0.59847844463229083</c:v>
+                        <c:v>0.59890109890109888</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>0.72556053811659182</c:v>
+                        <c:v>0.72406576980568005</c:v>
                       </c:pt>
                       <c:pt idx="11">
                         <c:v>0.58627773212818401</c:v>
@@ -2070,62 +2085,62 @@
                         <c:v>0.64544293015332199</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>0.85651669459842728</c:v>
+                        <c:v>0.85857934768596111</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>0.83304438280166426</c:v>
+                        <c:v>0.86477115117891823</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>0.88209733487833131</c:v>
+                        <c:v>0.86703360370799532</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>0.78740157480314965</c:v>
+                        <c:v>0.75984251968503946</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>0.8163554715197352</c:v>
+                        <c:v>0.83431812810210337</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>0.83305312710154678</c:v>
+                        <c:v>0.82229320780094151</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>0.8161978661493694</c:v>
+                        <c:v>0.83001939864209495</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>0.783792986040177</c:v>
+                        <c:v>0.75519237316990118</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>0.85125918153200431</c:v>
+                        <c:v>0.83342077649527813</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>0.8273314866112651</c:v>
+                        <c:v>0.80286241920590951</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>0.77646728447065427</c:v>
+                        <c:v>0.75315922493681553</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>0.88357671534306859</c:v>
+                        <c:v>0.876375275055011</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>0.88669844020797228</c:v>
+                        <c:v>0.82300693240901224</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>0.88111397144863102</c:v>
+                        <c:v>0.86941259068570098</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>0.80956474397547207</c:v>
+                        <c:v>0.81518095074357444</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>0.8395494111623143</c:v>
+                        <c:v>0.82369687660010227</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>0.82190637566070646</c:v>
+                        <c:v>0.81868608954418598</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000005-A766-471D-870C-85FF9BCAEE12}"/>
+                    <c16:uniqueId val="{00000004-A766-471D-870C-85FF9BCAEE12}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -2134,7 +2149,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="425027920"/>
+        <c:axId val="376388776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2177,7 +2192,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425029560"/>
+        <c:crossAx val="376388384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2185,7 +2200,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="425029560"/>
+        <c:axId val="376388384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.8"/>
@@ -2237,7 +2252,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425027920"/>
+        <c:crossAx val="376388776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2251,6 +2266,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2318,41 +2334,28 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
@@ -2865,15 +2868,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>465666</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>99483</xdr:rowOff>
+      <xdr:colOff>423332</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>175683</xdr:rowOff>
+      <xdr:colOff>529165</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>80433</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2971,23 +2974,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3023,23 +3009,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3192,10 +3161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3264,10 +3233,10 @@
         <v>3</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>39</v>
@@ -3295,8 +3264,8 @@
       <c r="F3" s="3">
         <v>25.34</v>
       </c>
-      <c r="G3" s="3">
-        <v>25.3</v>
+      <c r="G3">
+        <v>25.37</v>
       </c>
       <c r="H3" s="3">
         <v>41.69</v>
@@ -3329,7 +3298,7 @@
       </c>
       <c r="Q3" s="3">
         <f t="shared" si="0"/>
-        <v>0.8487084870848709</v>
+        <v>0.85105669238510573</v>
       </c>
       <c r="R3" s="3">
         <f t="shared" si="0"/>
@@ -3360,7 +3329,7 @@
         <v>49.19</v>
       </c>
       <c r="G4">
-        <v>48.33</v>
+        <v>48.36</v>
       </c>
       <c r="H4">
         <v>47.72</v>
@@ -3394,7 +3363,7 @@
       </c>
       <c r="Q4" s="3">
         <f t="shared" ref="Q4:Q32" si="6">G4/$C4</f>
-        <v>1.0596360447270334</v>
+        <v>1.0602937952203464</v>
       </c>
       <c r="R4" s="3">
         <f t="shared" ref="R4:R32" si="7">H4/$C4</f>
@@ -3425,7 +3394,7 @@
         <v>63.9</v>
       </c>
       <c r="G5">
-        <v>63.87</v>
+        <v>63.9</v>
       </c>
       <c r="H5">
         <v>126.11</v>
@@ -3459,7 +3428,7 @@
       </c>
       <c r="Q5" s="3">
         <f t="shared" si="6"/>
-        <v>0.76637868970482359</v>
+        <v>0.76673866090712739</v>
       </c>
       <c r="R5" s="3">
         <f t="shared" si="7"/>
@@ -3490,7 +3459,7 @@
         <v>44.92</v>
       </c>
       <c r="G6">
-        <v>45.43</v>
+        <v>45.36</v>
       </c>
       <c r="H6">
         <v>69.709999999999994</v>
@@ -3524,7 +3493,7 @@
       </c>
       <c r="Q6" s="3">
         <f t="shared" si="6"/>
-        <v>0.87584345479082326</v>
+        <v>0.87449392712550611</v>
       </c>
       <c r="R6" s="3">
         <f t="shared" si="7"/>
@@ -3555,7 +3524,7 @@
         <v>66.23</v>
       </c>
       <c r="G7">
-        <v>66.180000000000007</v>
+        <v>66.239999999999995</v>
       </c>
       <c r="H7">
         <v>106.7</v>
@@ -3589,7 +3558,7 @@
       </c>
       <c r="Q7" s="3">
         <f t="shared" si="6"/>
-        <v>0.85184708456686842</v>
+        <v>0.85261938473419996</v>
       </c>
       <c r="R7" s="3">
         <f t="shared" si="7"/>
@@ -3620,7 +3589,7 @@
         <v>15.47</v>
       </c>
       <c r="G8">
-        <v>15.43</v>
+        <v>15.44</v>
       </c>
       <c r="H8">
         <v>72.56</v>
@@ -3654,7 +3623,7 @@
       </c>
       <c r="Q8" s="3">
         <f t="shared" si="6"/>
-        <v>0.66912402428447526</v>
+        <v>0.66955767562879442</v>
       </c>
       <c r="R8" s="3">
         <f t="shared" si="7"/>
@@ -3685,7 +3654,7 @@
         <v>49.28</v>
       </c>
       <c r="G9">
-        <v>47.12</v>
+        <v>47.23</v>
       </c>
       <c r="H9">
         <v>59.25</v>
@@ -3719,7 +3688,7 @@
       </c>
       <c r="Q9" s="3">
         <f t="shared" si="6"/>
-        <v>1.0023399276749627</v>
+        <v>1.0046798553499254</v>
       </c>
       <c r="R9" s="3">
         <f t="shared" si="7"/>
@@ -3750,7 +3719,7 @@
         <v>18.239999999999998</v>
       </c>
       <c r="G10">
-        <v>19.059999999999999</v>
+        <v>18.170000000000002</v>
       </c>
       <c r="H10">
         <v>53.26</v>
@@ -3784,7 +3753,7 @@
       </c>
       <c r="Q10" s="3">
         <f t="shared" si="6"/>
-        <v>0.76669348350764277</v>
+        <v>0.73089300080450537</v>
       </c>
       <c r="R10" s="3">
         <f t="shared" si="7"/>
@@ -3815,7 +3784,7 @@
         <v>36.96</v>
       </c>
       <c r="G11">
-        <v>36.840000000000003</v>
+        <v>36.94</v>
       </c>
       <c r="H11">
         <v>49.13</v>
@@ -3849,7 +3818,7 @@
       </c>
       <c r="Q11" s="3">
         <f t="shared" si="6"/>
-        <v>0.72136283532406509</v>
+        <v>0.72332093205404346</v>
       </c>
       <c r="R11" s="3">
         <f t="shared" si="7"/>
@@ -3880,7 +3849,7 @@
         <v>14.17</v>
       </c>
       <c r="G12">
-        <v>14.16</v>
+        <v>14.18</v>
       </c>
       <c r="H12">
         <v>25.32</v>
@@ -3914,7 +3883,7 @@
       </c>
       <c r="Q12" s="3">
         <f t="shared" si="6"/>
-        <v>0.59847844463229083</v>
+        <v>0.59932375316990705</v>
       </c>
       <c r="R12" s="3">
         <f t="shared" si="7"/>
@@ -3945,7 +3914,7 @@
         <v>24.22</v>
       </c>
       <c r="G13">
-        <v>24.27</v>
+        <v>24.33</v>
       </c>
       <c r="H13">
         <v>58.39</v>
@@ -3979,7 +3948,7 @@
       </c>
       <c r="Q13" s="3">
         <f t="shared" si="6"/>
-        <v>0.72556053811659182</v>
+        <v>0.72735426008968596</v>
       </c>
       <c r="R13" s="3">
         <f t="shared" si="7"/>
@@ -4010,7 +3979,7 @@
         <v>14.27</v>
       </c>
       <c r="G14">
-        <v>14.27</v>
+        <v>14.28</v>
       </c>
       <c r="H14">
         <v>63.28</v>
@@ -4044,7 +4013,7 @@
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="6"/>
-        <v>0.58627773212818401</v>
+        <v>0.58668857847165157</v>
       </c>
       <c r="R14" s="3">
         <f t="shared" si="7"/>
@@ -4075,7 +4044,7 @@
         <v>30.31</v>
       </c>
       <c r="G15">
-        <v>30.31</v>
+        <v>30.29</v>
       </c>
       <c r="H15">
         <v>49.62</v>
@@ -4109,7 +4078,7 @@
       </c>
       <c r="Q15" s="3">
         <f t="shared" si="6"/>
-        <v>0.64544293015332199</v>
+        <v>0.6450170357751277</v>
       </c>
       <c r="R15" s="3">
         <f t="shared" si="7"/>
@@ -4140,7 +4109,7 @@
         <v>66.599999999999994</v>
       </c>
       <c r="G16">
-        <v>66.44</v>
+        <v>66.59</v>
       </c>
       <c r="H16">
         <v>82.39</v>
@@ -4174,7 +4143,7 @@
       </c>
       <c r="Q16" s="3">
         <f t="shared" si="6"/>
-        <v>0.85651669459842728</v>
+        <v>0.8584504318679903</v>
       </c>
       <c r="R16" s="3">
         <f t="shared" si="7"/>
@@ -4205,7 +4174,7 @@
         <v>49.88</v>
       </c>
       <c r="G17">
-        <v>48.05</v>
+        <v>47.85</v>
       </c>
       <c r="H17">
         <v>61.28</v>
@@ -4239,7 +4208,7 @@
       </c>
       <c r="Q17" s="3">
         <f t="shared" si="6"/>
-        <v>0.83304438280166426</v>
+        <v>0.82957697642163664</v>
       </c>
       <c r="R17" s="3">
         <f t="shared" si="7"/>
@@ -4270,7 +4239,7 @@
         <v>29.93</v>
       </c>
       <c r="G18">
-        <v>30.45</v>
+        <v>30.36</v>
       </c>
       <c r="H18">
         <v>58.88</v>
@@ -4304,7 +4273,7 @@
       </c>
       <c r="Q18" s="3">
         <f t="shared" si="6"/>
-        <v>0.88209733487833131</v>
+        <v>0.87949015063731162</v>
       </c>
       <c r="R18" s="3">
         <f t="shared" si="7"/>
@@ -4335,7 +4304,7 @@
         <v>19.3</v>
       </c>
       <c r="G19">
-        <v>20</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="H19">
         <v>51.7</v>
@@ -4369,7 +4338,7 @@
       </c>
       <c r="Q19" s="3">
         <f t="shared" si="6"/>
-        <v>0.78740157480314965</v>
+        <v>0.77165354330708669</v>
       </c>
       <c r="R19" s="3">
         <f t="shared" si="7"/>
@@ -4400,7 +4369,7 @@
         <v>35.299999999999997</v>
       </c>
       <c r="G20">
-        <v>34.54</v>
+        <v>34.97</v>
       </c>
       <c r="H20">
         <v>49.3</v>
@@ -4434,7 +4403,7 @@
       </c>
       <c r="Q20" s="3">
         <f t="shared" si="6"/>
-        <v>0.8163554715197352</v>
+        <v>0.82651855353344361</v>
       </c>
       <c r="R20" s="3">
         <f t="shared" si="7"/>
@@ -4465,7 +4434,7 @@
         <v>48.91</v>
       </c>
       <c r="G21">
-        <v>49.55</v>
+        <v>49.04</v>
       </c>
       <c r="H21">
         <v>73.569999999999993</v>
@@ -4499,7 +4468,7 @@
       </c>
       <c r="Q21" s="3">
         <f t="shared" si="6"/>
-        <v>0.83305312710154678</v>
+        <v>0.82447881640887699</v>
       </c>
       <c r="R21" s="3">
         <f t="shared" si="7"/>
@@ -4530,7 +4499,7 @@
         <v>34.229999999999997</v>
       </c>
       <c r="G22">
-        <v>33.659999999999997</v>
+        <v>33.96</v>
       </c>
       <c r="H22">
         <v>59.67</v>
@@ -4564,7 +4533,7 @@
       </c>
       <c r="Q22" s="3">
         <f t="shared" si="6"/>
-        <v>0.8161978661493694</v>
+        <v>0.82347235693501453</v>
       </c>
       <c r="R22" s="3">
         <f t="shared" si="7"/>
@@ -4595,7 +4564,7 @@
         <v>22.18</v>
       </c>
       <c r="G23">
-        <v>23.02</v>
+        <v>22.57</v>
       </c>
       <c r="H23">
         <v>53.86</v>
@@ -4629,7 +4598,7 @@
       </c>
       <c r="Q23" s="3">
         <f t="shared" si="6"/>
-        <v>0.783792986040177</v>
+        <v>0.76847122914538646</v>
       </c>
       <c r="R23" s="3">
         <f t="shared" si="7"/>
@@ -4660,7 +4629,7 @@
         <v>31.77</v>
       </c>
       <c r="G24">
-        <v>32.450000000000003</v>
+        <v>31.94</v>
       </c>
       <c r="H24">
         <v>74.849999999999994</v>
@@ -4694,7 +4663,7 @@
       </c>
       <c r="Q24" s="3">
         <f t="shared" si="6"/>
-        <v>0.85125918153200431</v>
+        <v>0.83788037775445967</v>
       </c>
       <c r="R24" s="3">
         <f t="shared" si="7"/>
@@ -4725,7 +4694,7 @@
         <v>34.78</v>
       </c>
       <c r="G25">
-        <v>35.840000000000003</v>
+        <v>35.1</v>
       </c>
       <c r="H25">
         <v>68.95</v>
@@ -4759,7 +4728,7 @@
       </c>
       <c r="Q25" s="3">
         <f t="shared" si="6"/>
-        <v>0.8273314866112651</v>
+        <v>0.81024930747922441</v>
       </c>
       <c r="R25" s="3">
         <f t="shared" si="7"/>
@@ -4790,7 +4759,7 @@
         <v>26.82</v>
       </c>
       <c r="G26">
-        <v>27.65</v>
+        <v>27.32</v>
       </c>
       <c r="H26">
         <v>62.38</v>
@@ -4824,7 +4793,7 @@
       </c>
       <c r="Q26" s="3">
         <f t="shared" si="6"/>
-        <v>0.77646728447065427</v>
+        <v>0.76720022465599558</v>
       </c>
       <c r="R26" s="3">
         <f t="shared" si="7"/>
@@ -4855,7 +4824,7 @@
         <v>43.81</v>
       </c>
       <c r="G27">
-        <v>44.17</v>
+        <v>44.19</v>
       </c>
       <c r="H27">
         <v>58.01</v>
@@ -4889,7 +4858,7 @@
       </c>
       <c r="Q27" s="3">
         <f t="shared" si="6"/>
-        <v>0.88357671534306859</v>
+        <v>0.8839767953590717</v>
       </c>
       <c r="R27" s="3">
         <f t="shared" si="7"/>
@@ -4920,7 +4889,7 @@
         <v>37.99</v>
       </c>
       <c r="G28">
-        <v>40.93</v>
+        <v>39.880000000000003</v>
       </c>
       <c r="H28">
         <v>56.12</v>
@@ -4954,7 +4923,7 @@
       </c>
       <c r="Q28" s="3">
         <f t="shared" si="6"/>
-        <v>0.88669844020797228</v>
+        <v>0.86395147313691523</v>
       </c>
       <c r="R28" s="3">
         <f t="shared" si="7"/>
@@ -4985,7 +4954,7 @@
         <v>37.15</v>
       </c>
       <c r="G29">
-        <v>37.65</v>
+        <v>37.479999999999997</v>
       </c>
       <c r="H29">
         <v>48.54</v>
@@ -5019,7 +4988,7 @@
       </c>
       <c r="Q29" s="3">
         <f t="shared" si="6"/>
-        <v>0.88111397144863102</v>
+        <v>0.87713550198923473</v>
       </c>
       <c r="R29" s="3">
         <f t="shared" si="7"/>
@@ -5056,7 +5025,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="9"/>
-        <v>37.670666666666662</v>
+        <v>37.635333333333342</v>
       </c>
       <c r="H30">
         <f t="shared" si="9"/>
@@ -5092,7 +5061,7 @@
       </c>
       <c r="Q30" s="3">
         <f t="shared" si="6"/>
-        <v>0.80956474397547207</v>
+        <v>0.80880540989713201</v>
       </c>
       <c r="R30" s="3">
         <f t="shared" si="7"/>
@@ -5129,7 +5098,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="11"/>
-        <v>34.159166666666664</v>
+        <v>33.8675</v>
       </c>
       <c r="H31">
         <f t="shared" si="11"/>
@@ -5165,7 +5134,7 @@
       </c>
       <c r="Q31" s="3">
         <f t="shared" si="6"/>
-        <v>0.8395494111623143</v>
+        <v>0.83238095238095233</v>
       </c>
       <c r="R31" s="3">
         <f t="shared" si="7"/>
@@ -5202,7 +5171,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="13"/>
-        <v>36.109999999999992</v>
+        <v>35.960740740740754</v>
       </c>
       <c r="H32">
         <f t="shared" si="13"/>
@@ -5238,7 +5207,7 @@
       </c>
       <c r="Q32" s="3">
         <f t="shared" si="6"/>
-        <v>0.82190637566070646</v>
+        <v>0.81850905810846153</v>
       </c>
       <c r="R32" s="3">
         <f t="shared" si="7"/>
@@ -5274,6 +5243,15 @@
       <c r="E37">
         <f>F32/I32</f>
         <v>1.2114389072537888</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38">
+        <f>G32/I32</f>
+        <v>1.2111769475456877</v>
       </c>
     </row>
   </sheetData>

--- a/paper/raw_data/revised/old_results/exp17_COMPARISON.xlsx
+++ b/paper/raw_data/revised/old_results/exp17_COMPARISON.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aprodrom\Desktop\MemPod\paper\raw_data\revised\old_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prodr\Documents\UCSD\MigrationResearch\MemPod\paper\raw_data\revised\old_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4635" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="COMPARISON" sheetId="1" r:id="rId1"/>
+    <sheet name="HMA PROFILING" sheetId="2" r:id="rId2"/>
+    <sheet name="COMPARISON WITH HMA PENALTY" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="48">
   <si>
     <t>DDR41600</t>
   </si>
@@ -148,11 +150,32 @@
   <si>
     <t>MEMPOD</t>
   </si>
+  <si>
+    <t>REQS</t>
+  </si>
+  <si>
+    <t>CYCLES</t>
+  </si>
+  <si>
+    <t>INTERVALS</t>
+  </si>
+  <si>
+    <t>AMMAT</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>HMA(5)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -216,7 +239,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -459,7 +482,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A766-471D-870C-85FF9BCAEE12}"/>
             </c:ext>
@@ -688,7 +711,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A766-471D-870C-85FF9BCAEE12}"/>
             </c:ext>
@@ -706,7 +729,7 @@
                   <c:v>MEMPOD</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -817,7 +840,7 @@
                   <c:v>AVG ALL</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -917,10 +940,10 @@
                   <c:v>0.81850905810846153</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-A766-471D-870C-85FF9BCAEE12}"/>
             </c:ext>
@@ -1149,7 +1172,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-A766-471D-870C-85FF9BCAEE12}"/>
             </c:ext>
@@ -1378,7 +1401,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-A766-471D-870C-85FF9BCAEE12}"/>
             </c:ext>
@@ -1396,7 +1419,7 @@
         <c:overlap val="-27"/>
         <c:axId val="376388776"/>
         <c:axId val="376388384"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -1404,7 +1427,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>COMPARISON!$L$2</c15:sqref>
@@ -1433,7 +1456,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>COMPARISON!$K$3:$K$32</c15:sqref>
@@ -1537,7 +1560,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>COMPARISON!$L$3:$L$32</c15:sqref>
@@ -1640,7 +1663,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-A766-471D-870C-85FF9BCAEE12}"/>
                   </c:ext>
@@ -1653,7 +1676,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>COMPARISON!$M$2</c15:sqref>
@@ -1682,7 +1705,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>COMPARISON!$K$3:$K$32</c15:sqref>
@@ -1786,7 +1809,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>COMPARISON!$M$3:$M$32</c15:sqref>
@@ -1889,7 +1912,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-A766-471D-870C-85FF9BCAEE12}"/>
                   </c:ext>
@@ -1902,7 +1925,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>COMPARISON!$P$2</c15:sqref>
@@ -1931,7 +1954,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>COMPARISON!$K$3:$K$32</c15:sqref>
@@ -2035,7 +2058,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>COMPARISON!$P$3:$P$32</c15:sqref>
@@ -2138,7 +2161,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-A766-471D-870C-85FF9BCAEE12}"/>
                   </c:ext>
@@ -2266,7 +2289,2120 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
       <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>THM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$K$3:$K$32</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bwaves</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bzip</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cactus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dealII</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>gems</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>lbm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>leslie</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>soplex</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sphinx</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>xalanc</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>zeusmp</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>mix1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>mix10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>mix11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>mix12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>mix2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>mix3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>mix4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>mix5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>mix6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>mix7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>mix8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>mix9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>AVG HG</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>AVG MIX</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>AVG ALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$N$3:$N$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.89265347198926537</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.009866257399693</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81125509959203257</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93965683439367653</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96344445874629936</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77580225498699051</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.06509253350351</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0277554304102978</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83728216173878989</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.67709213863060014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.81464872944693567</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.65694330320460148</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.68931005110732535</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95397705298440127</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0128294036061027</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.96494785631517954</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85314960629921266</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.92342235878043011</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.89307330195023538</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.91707080504364691</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.86210418794688459</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.90529905561385104</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.87003693444136654</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.8685762426284751</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.94838967793558704</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.91984402079722716</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.94453545518371174</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.89428063841370808</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.90869431643625198</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.90021328072970663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E18C-4A64-A8FD-00F8A97BA919}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HMA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="98500"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$K$3:$K$32</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bwaves</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bzip</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cactus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dealII</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>gems</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>lbm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>leslie</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>soplex</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sphinx</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>xalanc</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>zeusmp</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>mix1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>mix10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>mix11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>mix12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>mix2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>mix3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>mix4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>mix5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>mix6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>mix7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>mix8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>mix9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>AVG HG</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>AVG MIX</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>AVG ALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$O$3:$O$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.94154038351281366</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0360580181036574</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0445451136979271</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9671914361728855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0695341551732189</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0188150161812237</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0991320272425755</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1088088726648273</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0366421904916674</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0921584416980896</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99669741179792104</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.79351819005338986</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.91097276241021075</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0223766179304112</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0799808872412957</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0494176534725104</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0191443055184097</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0203865770220097</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.97229293832884933</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99733713306719385</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99789659556033228</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.94442236796778267</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.93145884212074859</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.99248091286273532</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0377165869645844</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.9907856245895551</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0303755155185468</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0232063696567448</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.99720961513385264</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0125061551993446</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E18C-4A64-A8FD-00F8A97BA919}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MEMPOD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$K$3:$K$32</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bwaves</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bzip</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cactus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dealII</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>gems</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>lbm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>leslie</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>soplex</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sphinx</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>xalanc</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>zeusmp</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>mix1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>mix10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>mix11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>mix12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>mix2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>mix3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>mix4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>mix5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>mix6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>mix7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>mix8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>mix9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>AVG HG</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>AVG MIX</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>AVG ALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$Q$3:$Q$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.85105669238510573</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0602937952203464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76673866090712739</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87449392712550611</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85261938473419996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66955767562879442</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0046798553499254</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73089300080450537</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.72332093205404346</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59932375316990705</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72735426008968596</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58668857847165157</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6450170357751277</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.8584504318679903</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.82957697642163664</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.87949015063731162</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.77165354330708669</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.82651855353344361</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.82447881640887699</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.82347235693501453</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.76847122914538646</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.83788037775445967</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.81024930747922441</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.76720022465599558</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.8839767953590717</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.86395147313691523</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.87713550198923473</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.80880540989713201</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.83238095238095233</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.81850905810846153</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E18C-4A64-A8FD-00F8A97BA919}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CAMEO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$K$3:$K$32</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bwaves</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bzip</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cactus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dealII</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>gems</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>lbm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>leslie</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>soplex</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sphinx</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>xalanc</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>zeusmp</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>mix1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>mix10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>mix11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>mix12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>mix2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>mix3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>mix4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>mix5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>mix6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>mix7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>mix8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>mix9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>AVG HG</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>AVG MIX</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>AVG ALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$R$3:$R$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.3985239852398523</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0462617846963385</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5131989440844731</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3439367649893965</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3734071309048785</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1465741543798789</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2603701340140396</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1423974255832663</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96201292343841793</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0701606086221471</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7455904334828101</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5998356614626132</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0566439522998297</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.062137424261957</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0624133148404993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.705677867902665</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0354330708661421</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1652091704088867</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2368863483523873</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4468962172647915</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.8338440585631597</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9635362014690452</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5916435826408126</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7517551249648975</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1604320864172835</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2157712305025996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.135970044465247</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.3845812200922665</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4661136712749616</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.4181398211139489</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E18C-4A64-A8FD-00F8A97BA919}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HBM2GHz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="88500"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$K$3:$K$32</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bwaves</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bzip</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cactus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dealII</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>gems</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>lbm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>leslie</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>soplex</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sphinx</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>xalanc</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>zeusmp</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>mix1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>mix10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>mix11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>mix12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>mix2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>mix3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>mix4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>mix5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>mix6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>mix7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>mix8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>mix9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>AVG HG</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>AVG MIX</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>AVG ALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$S$3:$S$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.55216370345521637</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74325805744354301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76121910247180224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76460381723539617</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8205689277899344</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59843885516045103</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63943841735800888</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42276749798873692</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70648130017622868</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.70076077768385459</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.57518684603886383</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.53779786359901394</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.62819420783645652</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.78200335181126723</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.62465325936199723</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.60457705677867901</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.59173228346456697</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.62727487591585906</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.74226630800269</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.61469447138700295</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.6012938372488934</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.64139559286463799</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.67497691597414589</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.64785172704296545</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.68053610722144431</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.67937608318890819</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.63538497542710037</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.69165305596148874</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.65312852022529444</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.67579643070905293</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E18C-4A64-A8FD-00F8A97BA919}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="376388776"/>
+        <c:axId val="376388384"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'COMPARISON WITH HMA PENALTY'!$L$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>DDR41600</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:tint val="88500"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'COMPARISON WITH HMA PENALTY'!$K$3:$K$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="30"/>
+                      <c:pt idx="0">
+                        <c:v>astar</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>bwaves</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>bzip</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>cactus</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>dealII</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>gcc</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>gems</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>lbm</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>leslie</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>libquantum</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>omnetpp</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>soplex</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>sphinx</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>xalanc</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>zeusmp</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>mix1</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>mix10</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>mix11</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>mix12</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>mix2</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>mix3</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>mix4</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>mix5</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>mix6</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>mix7</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>mix8</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>mix9</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>AVG HG</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>AVG MIX</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>AVG ALL</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'COMPARISON WITH HMA PENALTY'!$L$3:$L$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="30"/>
+                      <c:pt idx="0">
+                        <c:v>1.2690372358269038</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.1865818899364173</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.1467482601391887</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.0279545016387122</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.1406873471489254</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.2142237640936688</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.2939800042544141</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.6013676588897829</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.3469747405521835</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.6267962806424345</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.2863976083707025</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.3019720624486442</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1.2655451448040886</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.1945339693180355</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1.1827323162274619</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1.4006373117033604</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.5157480314960632</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.3072559678562987</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1.5063887020847344</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1.2841901066925314</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1.477357848144365</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1.4108079748163695</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1.5163896583564174</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>1.5195169896096603</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>1.2892578515703141</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>1.3901646447140383</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>1.3047039550666979</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>1.3070288546949771</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>1.4051408090117765</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>1.3474115475076502</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-E18C-4A64-A8FD-00F8A97BA919}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'COMPARISON WITH HMA PENALTY'!$M$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>NLM</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:tint val="55000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'COMPARISON WITH HMA PENALTY'!$K$3:$K$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="30"/>
+                      <c:pt idx="0">
+                        <c:v>astar</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>bwaves</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>bzip</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>cactus</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>dealII</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>gcc</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>gems</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>lbm</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>leslie</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>libquantum</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>omnetpp</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>soplex</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>sphinx</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>xalanc</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>zeusmp</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>mix1</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>mix10</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>mix11</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>mix12</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>mix2</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>mix3</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>mix4</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>mix5</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>mix6</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>mix7</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>mix8</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>mix9</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>AVG HG</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>AVG MIX</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>AVG ALL</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'COMPARISON WITH HMA PENALTY'!$M$3:$M$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="30"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-E18C-4A64-A8FD-00F8A97BA919}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'COMPARISON WITH HMA PENALTY'!$P$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>MPOLD</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:tint val="30000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'COMPARISON WITH HMA PENALTY'!$K$3:$K$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="30"/>
+                      <c:pt idx="0">
+                        <c:v>astar</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>bwaves</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>bzip</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>cactus</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>dealII</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>gcc</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>gems</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>lbm</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>leslie</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>libquantum</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>omnetpp</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>soplex</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>sphinx</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>xalanc</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>zeusmp</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>mix1</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>mix10</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>mix11</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>mix12</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>mix2</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>mix3</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>mix4</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>mix5</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>mix6</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>mix7</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>mix8</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>mix9</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>AVG HG</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>AVG MIX</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>AVG ALL</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'COMPARISON WITH HMA PENALTY'!$P$3:$P$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="30"/>
+                      <c:pt idx="0">
+                        <c:v>0.85005031868500502</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.0784915588686692</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.76673866090712739</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.86601118180065551</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.85249066803964479</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.67085862966175203</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.0482875983833229</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.73370876910699911</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.72371255140003921</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.59890109890109888</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.72406576980568005</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.58627773212818401</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.64544293015332199</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.85857934768596111</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.86477115117891823</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.86703360370799532</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.75984251968503946</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.83431812810210337</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.82229320780094151</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.83001939864209495</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.75519237316990118</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.83342077649527813</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.80286241920590951</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.75315922493681553</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.876375275055011</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.82300693240901224</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0.86941259068570098</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0.81518095074357444</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0.82369687660010227</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0.81868608954418598</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-E18C-4A64-A8FD-00F8A97BA919}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="376388776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="376388384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="376388384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="376388776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2360,7 +4496,537 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2898,6 +5564,43 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>423332</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>529165</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>80433</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2974,6 +5677,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3009,6 +5729,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3163,17 +5900,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="9" max="9" width="10.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.86328125" style="1"/>
+    <col min="9" max="9" width="10.59765625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B1" s="4" t="s">
         <v>36</v>
       </c>
@@ -3193,7 +5930,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3245,7 +5982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -3309,7 +6046,7 @@
         <v>0.55216370345521637</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -3374,7 +6111,7 @@
         <v>0.74325805744354301</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3439,7 +6176,7 @@
         <v>0.76121910247180224</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -3504,7 +6241,7 @@
         <v>0.76460381723539617</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -3569,7 +6306,7 @@
         <v>0.8205689277899344</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -3634,7 +6371,7 @@
         <v>0.59843885516045103</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -3699,7 +6436,7 @@
         <v>0.63943841735800888</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -3764,7 +6501,7 @@
         <v>0.42276749798873692</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -3829,7 +6566,7 @@
         <v>0.70648130017622868</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -3894,7 +6631,7 @@
         <v>0.70076077768385459</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -3959,7 +6696,7 @@
         <v>0.57518684603886383</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -4024,7 +6761,7 @@
         <v>0.53779786359901394</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -4089,7 +6826,7 @@
         <v>0.62819420783645652</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -4154,7 +6891,7 @@
         <v>0.78200335181126723</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -4219,7 +6956,7 @@
         <v>0.62465325936199723</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -4284,7 +7021,7 @@
         <v>0.60457705677867901</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -4349,7 +7086,7 @@
         <v>0.59173228346456697</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -4414,7 +7151,7 @@
         <v>0.62727487591585906</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -4479,7 +7216,7 @@
         <v>0.74226630800269</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -4544,7 +7281,7 @@
         <v>0.61469447138700295</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -4609,7 +7346,7 @@
         <v>0.6012938372488934</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -4674,7 +7411,7 @@
         <v>0.64139559286463799</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -4739,7 +7476,7 @@
         <v>0.67497691597414589</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -4804,7 +7541,7 @@
         <v>0.64785172704296545</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -4869,7 +7606,7 @@
         <v>0.68053610722144431</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -4934,7 +7671,7 @@
         <v>0.67937608318890819</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -4999,7 +7736,7 @@
         <v>0.63538497542710037</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -5072,7 +7809,7 @@
         <v>0.69165305596148874</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -5145,7 +7882,7 @@
         <v>0.65312852022529444</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
@@ -5218,7 +7955,7 @@
         <v>0.67579643070905293</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D35" t="s">
         <v>3</v>
       </c>
@@ -5227,7 +7964,7 @@
         <v>1.4043784694068489</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D36" t="s">
         <v>2</v>
       </c>
@@ -5236,7 +7973,7 @@
         <v>1.3320775899706856</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D37" t="s">
         <v>4</v>
       </c>
@@ -5245,7 +7982,2829 @@
         <v>1.2114389072537888</v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38">
+        <f>G32/I32</f>
+        <v>1.2111769475456877</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="L1:R1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:G30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.73046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>198587624</v>
+      </c>
+      <c r="C4">
+        <v>5213822159</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>26.25</v>
+      </c>
+      <c r="F4">
+        <f>($C4+$D4*45000000)/$B4</f>
+        <v>29.88012062121253</v>
+      </c>
+      <c r="G4">
+        <f>($C4+$D4*22500000)/$B4</f>
+        <v>28.067318832516975</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>79134438</v>
+      </c>
+      <c r="C5">
+        <v>3514466705</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>44.41</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F30" si="0">($C5+$D5*45000000)/$B5</f>
+        <v>50.097868958139316</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G30" si="1">($C5+$D5*22500000)/$B5</f>
+        <v>47.254606205707809</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>36565379</v>
+      </c>
+      <c r="C6">
+        <v>2980603625</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>81.510000000000005</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>92.590415239508388</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>87.052389775585254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>62110586</v>
+      </c>
+      <c r="C7">
+        <v>2913477530</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>46.9</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>53.42853358363098</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>50.168219794287566</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>34259688</v>
+      </c>
+      <c r="C8">
+        <v>2666709713</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>77.83</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>88.346096817927815</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>83.092108515407375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>246175684</v>
+      </c>
+      <c r="C9">
+        <v>5423620569</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>22.03</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>24.956244537133081</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>23.493874273139017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>118773703</v>
+      </c>
+      <c r="C10">
+        <v>5754560585</v>
+      </c>
+      <c r="D10">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>48.44</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>54.890606424891878</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>51.670196600673471</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>419415170</v>
+      </c>
+      <c r="C11">
+        <v>10818674369</v>
+      </c>
+      <c r="D11">
+        <v>33</v>
+      </c>
+      <c r="E11">
+        <v>25.79</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>29.335310806712119</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>27.564988574447604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>84242729</v>
+      </c>
+      <c r="C12">
+        <v>4167420993</v>
+      </c>
+      <c r="D12">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>49.46</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>56.413426409773599</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>52.941316668409449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>269120826</v>
+      </c>
+      <c r="C13">
+        <v>6504208289</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>24.16</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>27.512580126370452</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>25.840468730576802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>203865868</v>
+      </c>
+      <c r="C14">
+        <v>6369291901</v>
+      </c>
+      <c r="D14">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>31.24</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>35.436495436303247</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>33.339528424640463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>334882772</v>
+      </c>
+      <c r="C15">
+        <v>6063003801</v>
+      </c>
+      <c r="D15">
+        <v>18</v>
+      </c>
+      <c r="E15">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>20.523611172807659</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>19.31423274589951</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>102480983</v>
+      </c>
+      <c r="C16">
+        <v>4114062761</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>40.14</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>45.413916072604415</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>42.779280922783499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>41116841</v>
+      </c>
+      <c r="C17">
+        <v>3058302088</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>74.38</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>84.230743504832972</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>79.305754252861988</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>80913369</v>
+      </c>
+      <c r="C18">
+        <v>4725360573</v>
+      </c>
+      <c r="D18">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>58.4</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>66.18635015679547</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>62.29329757607794</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>101919815</v>
+      </c>
+      <c r="C19">
+        <v>3467136761</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>34.01</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>38.433515219783317</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>36.225897397871059</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>180473047</v>
+      </c>
+      <c r="C20">
+        <v>4379273185</v>
+      </c>
+      <c r="D20">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>24.26</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>27.507005990761602</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>25.886265360167606</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>78166272</v>
+      </c>
+      <c r="C21">
+        <v>3172137761</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>40.58</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>45.763187490891212</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>43.172556073801239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>43585181</v>
+      </c>
+      <c r="C22">
+        <v>2363117489</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>54.21</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>61.445597507097652</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>57.831983971799957</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>76095412</v>
+      </c>
+      <c r="C23">
+        <v>2927318249</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>38.46</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>43.791316209707887</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>41.130183367691075</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>127221163</v>
+      </c>
+      <c r="C24">
+        <v>3503626217</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>27.53</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>31.076796688299414</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>29.308223011606959</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>65450253</v>
+      </c>
+      <c r="C25">
+        <v>2221299473</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>33.93</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>38.064015932833748</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>36.001380666931873</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>61213062</v>
+      </c>
+      <c r="C26">
+        <v>2312495841</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>37.770000000000003</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>42.923777297727732</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>40.350797040670827</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>79077844</v>
+      </c>
+      <c r="C27">
+        <v>2614788561</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>33.06</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>37.618483389607839</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>35.342245307042006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>63314887</v>
+      </c>
+      <c r="C28">
+        <v>3081988393</v>
+      </c>
+      <c r="D28">
+        <v>9</v>
+      </c>
+      <c r="E28">
+        <v>48.67</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>55.073752133522724</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>51.875452182359574</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>58033305</v>
+      </c>
+      <c r="C29">
+        <v>2496633730</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>43.02</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>48.448623251768964</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>45.734664431053858</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>73853195</v>
+      </c>
+      <c r="C30">
+        <v>3049104465</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <v>41.28</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>46.769871838313833</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>44.027945778107501</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.86328125" style="1"/>
+    <col min="9" max="9" width="10.59765625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="L1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>37.83</v>
+      </c>
+      <c r="C3" s="3">
+        <v>29.81</v>
+      </c>
+      <c r="D3" s="3">
+        <v>26.61</v>
+      </c>
+      <c r="E3" s="3">
+        <v>28.067318832516975</v>
+      </c>
+      <c r="F3" s="3">
+        <v>25.34</v>
+      </c>
+      <c r="G3">
+        <v>25.37</v>
+      </c>
+      <c r="H3" s="3">
+        <v>41.69</v>
+      </c>
+      <c r="I3" s="3">
+        <v>16.46</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="3">
+        <f>B3/$C3</f>
+        <v>1.2690372358269038</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" ref="M3:S18" si="0">C3/$C3</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.89265347198926537</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94154038351281366</v>
+      </c>
+      <c r="P3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.85005031868500502</v>
+      </c>
+      <c r="Q3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.85105669238510573</v>
+      </c>
+      <c r="R3" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3985239852398523</v>
+      </c>
+      <c r="S3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.55216370345521637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>54.12</v>
+      </c>
+      <c r="C4">
+        <v>45.61</v>
+      </c>
+      <c r="D4">
+        <v>46.06</v>
+      </c>
+      <c r="E4">
+        <v>47.254606205707809</v>
+      </c>
+      <c r="F4">
+        <v>49.19</v>
+      </c>
+      <c r="G4">
+        <v>48.36</v>
+      </c>
+      <c r="H4">
+        <v>47.72</v>
+      </c>
+      <c r="I4" s="3">
+        <v>33.9</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" ref="L4:S32" si="1">B4/$C4</f>
+        <v>1.1865818899364173</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" si="0"/>
+        <v>1.009866257399693</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0360580181036574</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0784915588686692</v>
+      </c>
+      <c r="Q4" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0602937952203464</v>
+      </c>
+      <c r="R4" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0462617846963385</v>
+      </c>
+      <c r="S4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.74325805744354301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>95.57</v>
+      </c>
+      <c r="C5">
+        <v>83.34</v>
+      </c>
+      <c r="D5">
+        <v>67.61</v>
+      </c>
+      <c r="E5">
+        <v>87.052389775585254</v>
+      </c>
+      <c r="F5">
+        <v>63.9</v>
+      </c>
+      <c r="G5">
+        <v>63.9</v>
+      </c>
+      <c r="H5">
+        <v>126.11</v>
+      </c>
+      <c r="I5" s="3">
+        <v>63.44</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1467482601391887</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.81125509959203257</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0445451136979271</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.76673866090712739</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.76673866090712739</v>
+      </c>
+      <c r="R5" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5131989440844731</v>
+      </c>
+      <c r="S5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.76121910247180224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>105.19</v>
+      </c>
+      <c r="C6">
+        <v>51.87</v>
+      </c>
+      <c r="D6">
+        <v>48.74</v>
+      </c>
+      <c r="E6">
+        <v>50.168219794287566</v>
+      </c>
+      <c r="F6">
+        <v>44.92</v>
+      </c>
+      <c r="G6">
+        <v>45.36</v>
+      </c>
+      <c r="H6">
+        <v>69.709999999999994</v>
+      </c>
+      <c r="I6" s="3">
+        <v>39.659999999999997</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="1"/>
+        <v>2.0279545016387122</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.93965683439367653</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9671914361728855</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.86601118180065551</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.87449392712550611</v>
+      </c>
+      <c r="R6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3439367649893965</v>
+      </c>
+      <c r="S6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.76460381723539617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>88.62</v>
+      </c>
+      <c r="C7">
+        <v>77.69</v>
+      </c>
+      <c r="D7">
+        <v>74.849999999999994</v>
+      </c>
+      <c r="E7">
+        <v>83.092108515407375</v>
+      </c>
+      <c r="F7">
+        <v>66.23</v>
+      </c>
+      <c r="G7">
+        <v>66.239999999999995</v>
+      </c>
+      <c r="H7">
+        <v>106.7</v>
+      </c>
+      <c r="I7" s="3">
+        <v>63.75</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1406873471489254</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96344445874629936</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0695341551732189</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.85249066803964479</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.85261938473419996</v>
+      </c>
+      <c r="R7" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3734071309048785</v>
+      </c>
+      <c r="S7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.8205689277899344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>23.06</v>
+      </c>
+      <c r="D8">
+        <v>17.89</v>
+      </c>
+      <c r="E8">
+        <v>23.493874273139017</v>
+      </c>
+      <c r="F8">
+        <v>15.47</v>
+      </c>
+      <c r="G8">
+        <v>15.44</v>
+      </c>
+      <c r="H8">
+        <v>72.56</v>
+      </c>
+      <c r="I8" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2142237640936688</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.77580225498699051</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0188150161812237</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.67085862966175203</v>
+      </c>
+      <c r="Q8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.66955767562879442</v>
+      </c>
+      <c r="R8" s="3">
+        <f t="shared" si="0"/>
+        <v>3.1465741543798789</v>
+      </c>
+      <c r="S8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.59843885516045103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>60.83</v>
+      </c>
+      <c r="C9">
+        <v>47.01</v>
+      </c>
+      <c r="D9">
+        <v>50.07</v>
+      </c>
+      <c r="E9">
+        <v>51.670196600673471</v>
+      </c>
+      <c r="F9">
+        <v>49.28</v>
+      </c>
+      <c r="G9">
+        <v>47.23</v>
+      </c>
+      <c r="H9">
+        <v>59.25</v>
+      </c>
+      <c r="I9" s="3">
+        <v>30.06</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2939800042544141</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.06509253350351</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0991320272425755</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0482875983833229</v>
+      </c>
+      <c r="Q9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0046798553499254</v>
+      </c>
+      <c r="R9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2603701340140396</v>
+      </c>
+      <c r="S9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.63943841735800888</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>39.81</v>
+      </c>
+      <c r="C10">
+        <v>24.86</v>
+      </c>
+      <c r="D10">
+        <v>25.55</v>
+      </c>
+      <c r="E10">
+        <v>27.564988574447604</v>
+      </c>
+      <c r="F10">
+        <v>18.239999999999998</v>
+      </c>
+      <c r="G10">
+        <v>18.170000000000002</v>
+      </c>
+      <c r="H10">
+        <v>53.26</v>
+      </c>
+      <c r="I10" s="3">
+        <v>10.51</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6013676588897829</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0277554304102978</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1088088726648273</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.73370876910699911</v>
+      </c>
+      <c r="Q10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.73089300080450537</v>
+      </c>
+      <c r="R10" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1423974255832663</v>
+      </c>
+      <c r="S10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.42276749798873692</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>68.790000000000006</v>
+      </c>
+      <c r="C11">
+        <v>51.07</v>
+      </c>
+      <c r="D11">
+        <v>42.76</v>
+      </c>
+      <c r="E11">
+        <v>52.941316668409449</v>
+      </c>
+      <c r="F11">
+        <v>36.96</v>
+      </c>
+      <c r="G11">
+        <v>36.94</v>
+      </c>
+      <c r="H11">
+        <v>49.13</v>
+      </c>
+      <c r="I11" s="3">
+        <v>36.08</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3469747405521835</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.83728216173878989</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0366421904916674</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.72371255140003921</v>
+      </c>
+      <c r="Q11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.72332093205404346</v>
+      </c>
+      <c r="R11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96201292343841793</v>
+      </c>
+      <c r="S11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.70648130017622868</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>38.49</v>
+      </c>
+      <c r="C12">
+        <v>23.66</v>
+      </c>
+      <c r="D12">
+        <v>16.02</v>
+      </c>
+      <c r="E12">
+        <v>25.840468730576802</v>
+      </c>
+      <c r="F12">
+        <v>14.17</v>
+      </c>
+      <c r="G12">
+        <v>14.18</v>
+      </c>
+      <c r="H12">
+        <v>25.32</v>
+      </c>
+      <c r="I12" s="3">
+        <v>16.579999999999998</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6267962806424345</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.67709213863060014</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0921584416980896</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.59890109890109888</v>
+      </c>
+      <c r="Q12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.59932375316990705</v>
+      </c>
+      <c r="R12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0701606086221471</v>
+      </c>
+      <c r="S12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.70076077768385459</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>43.03</v>
+      </c>
+      <c r="C13">
+        <v>33.450000000000003</v>
+      </c>
+      <c r="D13">
+        <v>27.25</v>
+      </c>
+      <c r="E13">
+        <v>33.339528424640463</v>
+      </c>
+      <c r="F13">
+        <v>24.22</v>
+      </c>
+      <c r="G13">
+        <v>24.33</v>
+      </c>
+      <c r="H13">
+        <v>58.39</v>
+      </c>
+      <c r="I13" s="3">
+        <v>19.239999999999998</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2863976083707025</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.81464872944693567</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.99669741179792104</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.72406576980568005</v>
+      </c>
+      <c r="Q13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.72735426008968596</v>
+      </c>
+      <c r="R13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7455904334828101</v>
+      </c>
+      <c r="S13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.57518684603886383</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>31.69</v>
+      </c>
+      <c r="C14">
+        <v>24.34</v>
+      </c>
+      <c r="D14">
+        <v>15.99</v>
+      </c>
+      <c r="E14">
+        <v>19.31423274589951</v>
+      </c>
+      <c r="F14">
+        <v>14.27</v>
+      </c>
+      <c r="G14">
+        <v>14.28</v>
+      </c>
+      <c r="H14">
+        <v>63.28</v>
+      </c>
+      <c r="I14" s="3">
+        <v>13.09</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3019720624486442</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.65694330320460148</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.79351819005338986</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.58627773212818401</v>
+      </c>
+      <c r="Q14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.58668857847165157</v>
+      </c>
+      <c r="R14" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5998356614626132</v>
+      </c>
+      <c r="S14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.53779786359901394</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>59.43</v>
+      </c>
+      <c r="C15">
+        <v>46.96</v>
+      </c>
+      <c r="D15">
+        <v>32.369999999999997</v>
+      </c>
+      <c r="E15">
+        <v>42.779280922783499</v>
+      </c>
+      <c r="F15">
+        <v>30.31</v>
+      </c>
+      <c r="G15">
+        <v>30.29</v>
+      </c>
+      <c r="H15">
+        <v>49.62</v>
+      </c>
+      <c r="I15" s="3">
+        <v>29.5</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2655451448040886</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.68931005110732535</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.91097276241021075</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.64544293015332199</v>
+      </c>
+      <c r="Q15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.6450170357751277</v>
+      </c>
+      <c r="R15" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0566439522998297</v>
+      </c>
+      <c r="S15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.62819420783645652</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>92.66</v>
+      </c>
+      <c r="C16">
+        <v>77.569999999999993</v>
+      </c>
+      <c r="D16">
+        <v>74</v>
+      </c>
+      <c r="E16">
+        <v>79.305754252861988</v>
+      </c>
+      <c r="F16">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="G16">
+        <v>66.59</v>
+      </c>
+      <c r="H16">
+        <v>82.39</v>
+      </c>
+      <c r="I16" s="3">
+        <v>60.66</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1945339693180355</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95397705298440127</v>
+      </c>
+      <c r="O16" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0223766179304112</v>
+      </c>
+      <c r="P16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.85857934768596111</v>
+      </c>
+      <c r="Q16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.8584504318679903</v>
+      </c>
+      <c r="R16" s="3">
+        <f t="shared" si="0"/>
+        <v>1.062137424261957</v>
+      </c>
+      <c r="S16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.78200335181126723</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>68.22</v>
+      </c>
+      <c r="C17">
+        <v>57.68</v>
+      </c>
+      <c r="D17">
+        <v>58.42</v>
+      </c>
+      <c r="E17">
+        <v>62.29329757607794</v>
+      </c>
+      <c r="F17">
+        <v>49.88</v>
+      </c>
+      <c r="G17">
+        <v>47.85</v>
+      </c>
+      <c r="H17">
+        <v>61.28</v>
+      </c>
+      <c r="I17" s="3">
+        <v>36.03</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1827323162274619</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0128294036061027</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0799808872412957</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.86477115117891823</v>
+      </c>
+      <c r="Q17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.82957697642163664</v>
+      </c>
+      <c r="R17" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0624133148404993</v>
+      </c>
+      <c r="S17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.62465325936199723</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>48.35</v>
+      </c>
+      <c r="C18">
+        <v>34.520000000000003</v>
+      </c>
+      <c r="D18">
+        <v>33.31</v>
+      </c>
+      <c r="E18">
+        <v>36.225897397871059</v>
+      </c>
+      <c r="F18">
+        <v>29.93</v>
+      </c>
+      <c r="G18">
+        <v>30.36</v>
+      </c>
+      <c r="H18">
+        <v>58.88</v>
+      </c>
+      <c r="I18" s="3">
+        <v>20.87</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4006373117033604</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96494785631517954</v>
+      </c>
+      <c r="O18" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0494176534725104</v>
+      </c>
+      <c r="P18" s="3">
+        <f t="shared" si="0"/>
+        <v>0.86703360370799532</v>
+      </c>
+      <c r="Q18" s="3">
+        <f t="shared" si="0"/>
+        <v>0.87949015063731162</v>
+      </c>
+      <c r="R18" s="3">
+        <f t="shared" si="0"/>
+        <v>1.705677867902665</v>
+      </c>
+      <c r="S18" s="3">
+        <f t="shared" si="0"/>
+        <v>0.60457705677867901</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>38.5</v>
+      </c>
+      <c r="C19">
+        <v>25.4</v>
+      </c>
+      <c r="D19">
+        <v>21.67</v>
+      </c>
+      <c r="E19">
+        <v>25.886265360167606</v>
+      </c>
+      <c r="F19">
+        <v>19.3</v>
+      </c>
+      <c r="G19">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="H19">
+        <v>51.7</v>
+      </c>
+      <c r="I19" s="3">
+        <v>15.03</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5157480314960632</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" si="1"/>
+        <v>0.85314960629921266</v>
+      </c>
+      <c r="O19" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0191443055184097</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" si="1"/>
+        <v>0.75984251968503946</v>
+      </c>
+      <c r="Q19" s="3">
+        <f t="shared" si="1"/>
+        <v>0.77165354330708669</v>
+      </c>
+      <c r="R19" s="3">
+        <f t="shared" si="1"/>
+        <v>2.0354330708661421</v>
+      </c>
+      <c r="S19" s="3">
+        <f t="shared" si="1"/>
+        <v>0.59173228346456697</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>55.31</v>
+      </c>
+      <c r="C20">
+        <v>42.31</v>
+      </c>
+      <c r="D20">
+        <v>39.07</v>
+      </c>
+      <c r="E20">
+        <v>43.172556073801239</v>
+      </c>
+      <c r="F20">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="G20">
+        <v>34.97</v>
+      </c>
+      <c r="H20">
+        <v>49.3</v>
+      </c>
+      <c r="I20" s="3">
+        <v>26.54</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3072559678562987</v>
+      </c>
+      <c r="M20" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" si="1"/>
+        <v>0.92342235878043011</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0203865770220097</v>
+      </c>
+      <c r="P20" s="3">
+        <f t="shared" si="1"/>
+        <v>0.83431812810210337</v>
+      </c>
+      <c r="Q20" s="3">
+        <f t="shared" si="1"/>
+        <v>0.82651855353344361</v>
+      </c>
+      <c r="R20" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1652091704088867</v>
+      </c>
+      <c r="S20" s="3">
+        <f t="shared" si="1"/>
+        <v>0.62727487591585906</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>89.6</v>
+      </c>
+      <c r="C21">
+        <v>59.48</v>
+      </c>
+      <c r="D21">
+        <v>53.12</v>
+      </c>
+      <c r="E21">
+        <v>57.831983971799957</v>
+      </c>
+      <c r="F21">
+        <v>48.91</v>
+      </c>
+      <c r="G21">
+        <v>49.04</v>
+      </c>
+      <c r="H21">
+        <v>73.569999999999993</v>
+      </c>
+      <c r="I21" s="3">
+        <v>44.15</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5063887020847344</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N21" s="3">
+        <f t="shared" si="1"/>
+        <v>0.89307330195023538</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" si="1"/>
+        <v>0.97229293832884933</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" si="1"/>
+        <v>0.82229320780094151</v>
+      </c>
+      <c r="Q21" s="3">
+        <f t="shared" si="1"/>
+        <v>0.82447881640887699</v>
+      </c>
+      <c r="R21" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2368863483523873</v>
+      </c>
+      <c r="S21" s="3">
+        <f t="shared" si="1"/>
+        <v>0.74226630800269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>52.96</v>
+      </c>
+      <c r="C22">
+        <v>41.24</v>
+      </c>
+      <c r="D22">
+        <v>37.82</v>
+      </c>
+      <c r="E22">
+        <v>41.130183367691075</v>
+      </c>
+      <c r="F22">
+        <v>34.229999999999997</v>
+      </c>
+      <c r="G22">
+        <v>33.96</v>
+      </c>
+      <c r="H22">
+        <v>59.67</v>
+      </c>
+      <c r="I22" s="3">
+        <v>25.35</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2841901066925314</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N22" s="3">
+        <f t="shared" si="1"/>
+        <v>0.91707080504364691</v>
+      </c>
+      <c r="O22" s="3">
+        <f t="shared" si="1"/>
+        <v>0.99733713306719385</v>
+      </c>
+      <c r="P22" s="3">
+        <f t="shared" si="1"/>
+        <v>0.83001939864209495</v>
+      </c>
+      <c r="Q22" s="3">
+        <f t="shared" si="1"/>
+        <v>0.82347235693501453</v>
+      </c>
+      <c r="R22" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4468962172647915</v>
+      </c>
+      <c r="S22" s="3">
+        <f t="shared" si="1"/>
+        <v>0.61469447138700295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>43.39</v>
+      </c>
+      <c r="C23">
+        <v>29.37</v>
+      </c>
+      <c r="D23">
+        <v>25.32</v>
+      </c>
+      <c r="E23">
+        <v>29.308223011606959</v>
+      </c>
+      <c r="F23">
+        <v>22.18</v>
+      </c>
+      <c r="G23">
+        <v>22.57</v>
+      </c>
+      <c r="H23">
+        <v>53.86</v>
+      </c>
+      <c r="I23" s="3">
+        <v>17.66</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="1"/>
+        <v>1.477357848144365</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N23" s="3">
+        <f t="shared" si="1"/>
+        <v>0.86210418794688459</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" si="1"/>
+        <v>0.99789659556033228</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" si="1"/>
+        <v>0.75519237316990118</v>
+      </c>
+      <c r="Q23" s="3">
+        <f t="shared" si="1"/>
+        <v>0.76847122914538646</v>
+      </c>
+      <c r="R23" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8338440585631597</v>
+      </c>
+      <c r="S23" s="3">
+        <f t="shared" si="1"/>
+        <v>0.6012938372488934</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>53.78</v>
+      </c>
+      <c r="C24">
+        <v>38.119999999999997</v>
+      </c>
+      <c r="D24">
+        <v>34.51</v>
+      </c>
+      <c r="E24">
+        <v>36.001380666931873</v>
+      </c>
+      <c r="F24">
+        <v>31.77</v>
+      </c>
+      <c r="G24">
+        <v>31.94</v>
+      </c>
+      <c r="H24">
+        <v>74.849999999999994</v>
+      </c>
+      <c r="I24" s="3">
+        <v>24.45</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4108079748163695</v>
+      </c>
+      <c r="M24" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N24" s="3">
+        <f t="shared" si="1"/>
+        <v>0.90529905561385104</v>
+      </c>
+      <c r="O24" s="3">
+        <f t="shared" si="1"/>
+        <v>0.94442236796778267</v>
+      </c>
+      <c r="P24" s="3">
+        <f t="shared" si="1"/>
+        <v>0.83342077649527813</v>
+      </c>
+      <c r="Q24" s="3">
+        <f t="shared" si="1"/>
+        <v>0.83788037775445967</v>
+      </c>
+      <c r="R24" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9635362014690452</v>
+      </c>
+      <c r="S24" s="3">
+        <f t="shared" si="1"/>
+        <v>0.64139559286463799</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>65.69</v>
+      </c>
+      <c r="C25">
+        <v>43.32</v>
+      </c>
+      <c r="D25">
+        <v>37.69</v>
+      </c>
+      <c r="E25">
+        <v>40.350797040670827</v>
+      </c>
+      <c r="F25">
+        <v>34.78</v>
+      </c>
+      <c r="G25">
+        <v>35.1</v>
+      </c>
+      <c r="H25">
+        <v>68.95</v>
+      </c>
+      <c r="I25" s="3">
+        <v>29.24</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5163896583564174</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N25" s="3">
+        <f t="shared" si="1"/>
+        <v>0.87003693444136654</v>
+      </c>
+      <c r="O25" s="3">
+        <f t="shared" si="1"/>
+        <v>0.93145884212074859</v>
+      </c>
+      <c r="P25" s="3">
+        <f t="shared" si="1"/>
+        <v>0.80286241920590951</v>
+      </c>
+      <c r="Q25" s="3">
+        <f t="shared" si="1"/>
+        <v>0.81024930747922441</v>
+      </c>
+      <c r="R25" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5916435826408126</v>
+      </c>
+      <c r="S25" s="3">
+        <f t="shared" si="1"/>
+        <v>0.67497691597414589</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>54.11</v>
+      </c>
+      <c r="C26">
+        <v>35.61</v>
+      </c>
+      <c r="D26">
+        <v>30.93</v>
+      </c>
+      <c r="E26">
+        <v>35.342245307042006</v>
+      </c>
+      <c r="F26">
+        <v>26.82</v>
+      </c>
+      <c r="G26">
+        <v>27.32</v>
+      </c>
+      <c r="H26">
+        <v>62.38</v>
+      </c>
+      <c r="I26" s="3">
+        <v>23.07</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5195169896096603</v>
+      </c>
+      <c r="M26" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N26" s="3">
+        <f t="shared" si="1"/>
+        <v>0.8685762426284751</v>
+      </c>
+      <c r="O26" s="3">
+        <f t="shared" si="1"/>
+        <v>0.99248091286273532</v>
+      </c>
+      <c r="P26" s="3">
+        <f t="shared" si="1"/>
+        <v>0.75315922493681553</v>
+      </c>
+      <c r="Q26" s="3">
+        <f t="shared" si="1"/>
+        <v>0.76720022465599558</v>
+      </c>
+      <c r="R26" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7517551249648975</v>
+      </c>
+      <c r="S26" s="3">
+        <f t="shared" si="1"/>
+        <v>0.64785172704296545</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>64.45</v>
+      </c>
+      <c r="C27">
+        <v>49.99</v>
+      </c>
+      <c r="D27">
+        <v>47.41</v>
+      </c>
+      <c r="E27">
+        <v>51.875452182359574</v>
+      </c>
+      <c r="F27">
+        <v>43.81</v>
+      </c>
+      <c r="G27">
+        <v>44.19</v>
+      </c>
+      <c r="H27">
+        <v>58.01</v>
+      </c>
+      <c r="I27" s="3">
+        <v>34.020000000000003</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2892578515703141</v>
+      </c>
+      <c r="M27" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N27" s="3">
+        <f t="shared" si="1"/>
+        <v>0.94838967793558704</v>
+      </c>
+      <c r="O27" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0377165869645844</v>
+      </c>
+      <c r="P27" s="3">
+        <f t="shared" si="1"/>
+        <v>0.876375275055011</v>
+      </c>
+      <c r="Q27" s="3">
+        <f t="shared" si="1"/>
+        <v>0.8839767953590717</v>
+      </c>
+      <c r="R27" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1604320864172835</v>
+      </c>
+      <c r="S27" s="3">
+        <f t="shared" si="1"/>
+        <v>0.68053610722144431</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>64.17</v>
+      </c>
+      <c r="C28">
+        <v>46.16</v>
+      </c>
+      <c r="D28">
+        <v>42.46</v>
+      </c>
+      <c r="E28">
+        <v>45.734664431053858</v>
+      </c>
+      <c r="F28">
+        <v>37.99</v>
+      </c>
+      <c r="G28">
+        <v>39.880000000000003</v>
+      </c>
+      <c r="H28">
+        <v>56.12</v>
+      </c>
+      <c r="I28" s="3">
+        <v>31.36</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3901646447140383</v>
+      </c>
+      <c r="M28" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N28" s="3">
+        <f t="shared" si="1"/>
+        <v>0.91984402079722716</v>
+      </c>
+      <c r="O28" s="3">
+        <f t="shared" si="1"/>
+        <v>0.9907856245895551</v>
+      </c>
+      <c r="P28" s="3">
+        <f t="shared" si="1"/>
+        <v>0.82300693240901224</v>
+      </c>
+      <c r="Q28" s="3">
+        <f t="shared" si="1"/>
+        <v>0.86395147313691523</v>
+      </c>
+      <c r="R28" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2157712305025996</v>
+      </c>
+      <c r="S28" s="3">
+        <f t="shared" si="1"/>
+        <v>0.67937608318890819</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>55.75</v>
+      </c>
+      <c r="C29">
+        <v>42.73</v>
+      </c>
+      <c r="D29">
+        <v>40.36</v>
+      </c>
+      <c r="E29">
+        <v>44.027945778107501</v>
+      </c>
+      <c r="F29">
+        <v>37.15</v>
+      </c>
+      <c r="G29">
+        <v>37.479999999999997</v>
+      </c>
+      <c r="H29">
+        <v>48.54</v>
+      </c>
+      <c r="I29" s="3">
+        <v>27.15</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3047039550666979</v>
+      </c>
+      <c r="M29" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N29" s="3">
+        <f t="shared" si="1"/>
+        <v>0.94453545518371174</v>
+      </c>
+      <c r="O29" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0303755155185468</v>
+      </c>
+      <c r="P29" s="3">
+        <f t="shared" si="1"/>
+        <v>0.86941259068570098</v>
+      </c>
+      <c r="Q29" s="3">
+        <f t="shared" si="1"/>
+        <v>0.87713550198923473</v>
+      </c>
+      <c r="R29" s="3">
+        <f t="shared" si="1"/>
+        <v>1.135970044465247</v>
+      </c>
+      <c r="S29" s="3">
+        <f t="shared" si="1"/>
+        <v>0.63538497542710037</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <f>AVERAGE(B3:B17)</f>
+        <v>60.818666666666665</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:I30" si="2">AVERAGE(C3:C17)</f>
+        <v>46.531999999999996</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>41.612666666666662</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>47.611838792867651</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>37.932000000000002</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>37.635333333333342</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>64.427333333333337</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>32.18399999999999</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3070288546949771</v>
+      </c>
+      <c r="M30" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N30" s="3">
+        <f t="shared" si="1"/>
+        <v>0.89428063841370808</v>
+      </c>
+      <c r="O30" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0232063696567448</v>
+      </c>
+      <c r="P30" s="3">
+        <f t="shared" si="1"/>
+        <v>0.81518095074357444</v>
+      </c>
+      <c r="Q30" s="3">
+        <f t="shared" si="1"/>
+        <v>0.80880540989713201</v>
+      </c>
+      <c r="R30" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3845812200922665</v>
+      </c>
+      <c r="S30" s="3">
+        <f t="shared" si="1"/>
+        <v>0.69165305596148874</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <f>AVERAGE(B18:B29)</f>
+        <v>57.17166666666666</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31:I31" si="3">AVERAGE(C18:C29)</f>
+        <v>40.6875</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="3"/>
+        <v>36.972500000000004</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>40.573966215758631</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>33.514166666666661</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>33.8675</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>59.652500000000003</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>26.574166666666667</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4051408090117765</v>
+      </c>
+      <c r="M31" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N31" s="3">
+        <f t="shared" si="1"/>
+        <v>0.90869431643625198</v>
+      </c>
+      <c r="O31" s="3">
+        <f t="shared" si="1"/>
+        <v>0.99720961513385264</v>
+      </c>
+      <c r="P31" s="3">
+        <f t="shared" si="1"/>
+        <v>0.82369687660010227</v>
+      </c>
+      <c r="Q31" s="3">
+        <f t="shared" si="1"/>
+        <v>0.83238095238095233</v>
+      </c>
+      <c r="R31" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4661136712749616</v>
+      </c>
+      <c r="S31" s="3">
+        <f t="shared" si="1"/>
+        <v>0.65312852022529444</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <f>AVERAGE(B3:B29)</f>
+        <v>59.19777777777778</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32:I32" si="4">AVERAGE(C3:C29)</f>
+        <v>43.934444444444445</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="4"/>
+        <v>39.550370370370366</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="4"/>
+        <v>44.483895425263654</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>35.968518518518508</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>35.960740740740754</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="4"/>
+        <v>62.305185185185174</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
+        <v>29.690740740740736</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3474115475076502</v>
+      </c>
+      <c r="M32" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N32" s="3">
+        <f t="shared" si="1"/>
+        <v>0.90021328072970663</v>
+      </c>
+      <c r="O32" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0125061551993446</v>
+      </c>
+      <c r="P32" s="3">
+        <f t="shared" si="1"/>
+        <v>0.81868608954418598</v>
+      </c>
+      <c r="Q32" s="3">
+        <f t="shared" si="1"/>
+        <v>0.81850905810846153</v>
+      </c>
+      <c r="R32" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4181398211139489</v>
+      </c>
+      <c r="S32" s="3">
+        <f t="shared" si="1"/>
+        <v>0.67579643070905293</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <f>E32/I32</f>
+        <v>1.4982413478227641</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <f>D32/I32</f>
+        <v>1.3320775899706856</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <f>F32/I32</f>
+        <v>1.2114389072537888</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D38" t="s">
         <v>37</v>
       </c>

--- a/paper/raw_data/revised/old_results/exp17_COMPARISON.xlsx
+++ b/paper/raw_data/revised/old_results/exp17_COMPARISON.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prodr\Documents\UCSD\MigrationResearch\MemPod\paper\raw_data\revised\old_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prodr\Documents\UCSD\MigrationResearch\MemPodCameraReady\paper\raw_data\revised\old_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4635" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4635" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="COMPARISON" sheetId="1" r:id="rId1"/>
@@ -3790,7 +3790,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'COMPARISON WITH HMA PENALTY'!$M$2</c15:sqref>
@@ -3819,7 +3819,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'COMPARISON WITH HMA PENALTY'!$K$3:$K$32</c15:sqref>
@@ -3923,7 +3923,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'COMPARISON WITH HMA PENALTY'!$M$3:$M$32</c15:sqref>
@@ -4039,7 +4039,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'COMPARISON WITH HMA PENALTY'!$P$2</c15:sqref>
@@ -4068,7 +4068,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'COMPARISON WITH HMA PENALTY'!$K$3:$K$32</c15:sqref>
@@ -4172,7 +4172,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'COMPARISON WITH HMA PENALTY'!$P$3:$P$32</c15:sqref>
@@ -4469,6 +4469,2850 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NLM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="55000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$K$3:$K$17</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bwaves</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bzip</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cactus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dealII</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>gems</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>lbm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>leslie</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>soplex</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sphinx</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>xalanc</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>zeusmp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$M$3:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3C3C-4CB9-8CD5-B75896B4EA0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>THM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$K$3:$K$17</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bwaves</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bzip</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cactus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dealII</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>gems</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>lbm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>leslie</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>soplex</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sphinx</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>xalanc</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>zeusmp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$N$3:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.89265347198926537</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.009866257399693</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81125509959203257</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93965683439367653</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96344445874629936</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77580225498699051</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.06509253350351</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0277554304102978</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83728216173878989</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.67709213863060014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.81464872944693567</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.65694330320460148</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.68931005110732535</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95397705298440127</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0128294036061027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3C3C-4CB9-8CD5-B75896B4EA0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HMA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="98500"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$K$3:$K$17</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bwaves</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bzip</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cactus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dealII</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>gems</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>lbm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>leslie</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>soplex</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sphinx</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>xalanc</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>zeusmp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$O$3:$O$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.94154038351281366</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0360580181036574</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0445451136979271</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9671914361728855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0695341551732189</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0188150161812237</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0991320272425755</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1088088726648273</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0366421904916674</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0921584416980896</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99669741179792104</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.79351819005338986</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.91097276241021075</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0223766179304112</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0799808872412957</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3C3C-4CB9-8CD5-B75896B4EA0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CAMEO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$K$3:$K$17</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bwaves</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bzip</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cactus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dealII</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>gems</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>lbm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>leslie</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>soplex</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sphinx</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>xalanc</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>zeusmp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$R$3:$R$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.3985239852398523</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0462617846963385</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5131989440844731</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3439367649893965</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3734071309048785</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1465741543798789</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2603701340140396</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1423974255832663</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96201292343841793</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0701606086221471</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7455904334828101</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5998356614626132</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0566439522998297</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.062137424261957</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0624133148404993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-3C3C-4CB9-8CD5-B75896B4EA0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MEMPOD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$K$3:$K$17</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bwaves</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bzip</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cactus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dealII</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>gems</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>lbm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>leslie</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>soplex</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sphinx</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>xalanc</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>zeusmp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$Q$3:$Q$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.85105669238510573</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0602937952203464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76673866090712739</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87449392712550611</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85261938473419996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66955767562879442</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0046798553499254</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73089300080450537</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.72332093205404346</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59932375316990705</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72735426008968596</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58668857847165157</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6450170357751277</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.8584504318679903</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.82957697642163664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3C3C-4CB9-8CD5-B75896B4EA0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HBM2GHz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="88500"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$K$3:$K$17</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bwaves</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bzip</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cactus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dealII</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>gems</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>lbm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>leslie</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>soplex</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sphinx</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>xalanc</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>zeusmp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$S$3:$S$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.55216370345521637</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74325805744354301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76121910247180224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76460381723539617</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8205689277899344</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59843885516045103</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63943841735800888</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42276749798873692</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70648130017622868</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.70076077768385459</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.57518684603886383</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.53779786359901394</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.62819420783645652</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.78200335181126723</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.62465325936199723</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-3C3C-4CB9-8CD5-B75896B4EA0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="343808720"/>
+        <c:axId val="343809376"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'COMPARISON WITH HMA PENALTY'!$L$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>DDR41600</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:tint val="88500"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'COMPARISON WITH HMA PENALTY'!$K$3:$K$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>astar</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>bwaves</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>bzip</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>cactus</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>dealII</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>gcc</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>gems</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>lbm</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>leslie</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>libquantum</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>omnetpp</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>soplex</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>sphinx</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>xalanc</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>zeusmp</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'COMPARISON WITH HMA PENALTY'!$L$3:$L$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>1.2690372358269038</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.1865818899364173</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.1467482601391887</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.0279545016387122</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.1406873471489254</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.2142237640936688</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.2939800042544141</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.6013676588897829</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.3469747405521835</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.6267962806424345</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.2863976083707025</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.3019720624486442</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1.2655451448040886</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.1945339693180355</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1.1827323162274619</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-3C3C-4CB9-8CD5-B75896B4EA0D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'COMPARISON WITH HMA PENALTY'!$P$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>MPOLD</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:tint val="30000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'COMPARISON WITH HMA PENALTY'!$K$3:$K$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>astar</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>bwaves</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>bzip</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>cactus</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>dealII</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>gcc</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>gems</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>lbm</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>leslie</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>libquantum</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>omnetpp</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>soplex</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>sphinx</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>xalanc</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>zeusmp</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'COMPARISON WITH HMA PENALTY'!$P$3:$P$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>0.85005031868500502</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.0784915588686692</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.76673866090712739</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.86601118180065551</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.85249066803964479</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.67085862966175203</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.0482875983833229</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.73370876910699911</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.72371255140003921</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.59890109890109888</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.72406576980568005</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.58627773212818401</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.64544293015332199</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.85857934768596111</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.86477115117891823</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-3C3C-4CB9-8CD5-B75896B4EA0D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="343808720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343809376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="343809376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343808720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NLM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="55000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'COMPARISON WITH HMA PENALTY'!$K$3:$K$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$K$18:$K$32</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>mix1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mix10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mix11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mix12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mix2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mix3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>mix4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mix5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>mix6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>mix7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>mix8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>mix9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>AVG HG</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>AVG MIX</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>AVG ALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'COMPARISON WITH HMA PENALTY'!$M$3:$M$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$M$18:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BC64-4D02-96D3-EDDE2C621C17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>THM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'COMPARISON WITH HMA PENALTY'!$K$3:$K$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$K$18:$K$32</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>mix1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mix10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mix11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mix12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mix2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mix3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>mix4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mix5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>mix6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>mix7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>mix8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>mix9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>AVG HG</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>AVG MIX</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>AVG ALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'COMPARISON WITH HMA PENALTY'!$N$3:$N$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$N$18:$N$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.96494785631517954</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85314960629921266</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92342235878043011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89307330195023538</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91707080504364691</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86210418794688459</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90529905561385104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87003693444136654</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8685762426284751</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94838967793558704</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91984402079722716</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.94453545518371174</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.89428063841370808</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.90869431643625198</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.90021328072970663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BC64-4D02-96D3-EDDE2C621C17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HMA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="98500"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'COMPARISON WITH HMA PENALTY'!$K$3:$K$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$K$18:$K$32</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>mix1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mix10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mix11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mix12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mix2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mix3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>mix4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mix5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>mix6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>mix7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>mix8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>mix9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>AVG HG</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>AVG MIX</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>AVG ALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'COMPARISON WITH HMA PENALTY'!$O$3:$O$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$O$18:$O$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.0494176534725104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0191443055184097</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0203865770220097</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97229293832884933</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99733713306719385</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99789659556033228</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94442236796778267</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93145884212074859</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99248091286273532</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0377165869645844</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9907856245895551</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0303755155185468</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0232063696567448</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99720961513385264</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0125061551993446</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BC64-4D02-96D3-EDDE2C621C17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CAMEO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'COMPARISON WITH HMA PENALTY'!$K$3:$K$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$K$18:$K$32</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>mix1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mix10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mix11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mix12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mix2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mix3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>mix4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mix5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>mix6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>mix7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>mix8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>mix9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>AVG HG</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>AVG MIX</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>AVG ALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'COMPARISON WITH HMA PENALTY'!$R$3:$R$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$R$18:$R$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.705677867902665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0354330708661421</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1652091704088867</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2368863483523873</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4468962172647915</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8338440585631597</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9635362014690452</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5916435826408126</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7517551249648975</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1604320864172835</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2157712305025996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.135970044465247</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3845812200922665</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4661136712749616</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4181398211139489</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-BC64-4D02-96D3-EDDE2C621C17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MEMPOD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'COMPARISON WITH HMA PENALTY'!$K$3:$K$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$K$18:$K$32</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>mix1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mix10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mix11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mix12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mix2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mix3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>mix4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mix5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>mix6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>mix7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>mix8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>mix9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>AVG HG</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>AVG MIX</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>AVG ALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'COMPARISON WITH HMA PENALTY'!$Q$3:$Q$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$Q$18:$Q$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.87949015063731162</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77165354330708669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82651855353344361</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82447881640887699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82347235693501453</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76847122914538646</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83788037775445967</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.81024930747922441</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.76720022465599558</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8839767953590717</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.86395147313691523</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.87713550198923473</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.80880540989713201</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.83238095238095233</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.81850905810846153</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-BC64-4D02-96D3-EDDE2C621C17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HBM2GHz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="88500"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'COMPARISON WITH HMA PENALTY'!$K$3:$K$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$K$18:$K$32</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>mix1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mix10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mix11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mix12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mix2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mix3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>mix4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mix5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>mix6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>mix7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>mix8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>mix9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>AVG HG</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>AVG MIX</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>AVG ALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'COMPARISON WITH HMA PENALTY'!$S$3:$S$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'COMPARISON WITH HMA PENALTY'!$S$18:$S$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.60457705677867901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59173228346456697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62727487591585906</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74226630800269</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61469447138700295</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6012938372488934</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64139559286463799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67497691597414589</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64785172704296545</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.68053610722144431</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.67937608318890819</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63538497542710037</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.69165305596148874</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65312852022529444</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.67579643070905293</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-BC64-4D02-96D3-EDDE2C621C17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="441627056"/>
+        <c:axId val="441638864"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'COMPARISON WITH HMA PENALTY'!$L$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>DDR41600</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:tint val="88500"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'COMPARISON WITH HMA PENALTY'!$K$3:$K$32</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'COMPARISON WITH HMA PENALTY'!$K$18:$K$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>mix1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>mix10</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>mix11</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>mix12</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>mix2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>mix3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>mix4</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>mix5</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>mix6</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>mix7</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>mix8</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>mix9</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>AVG HG</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>AVG MIX</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>AVG ALL</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'COMPARISON WITH HMA PENALTY'!$L$3:$L$32</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'COMPARISON WITH HMA PENALTY'!$L$18:$L$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>1.4006373117033604</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.5157480314960632</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.3072559678562987</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.5063887020847344</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.2841901066925314</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.477357848144365</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.4108079748163695</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.5163896583564174</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.5195169896096603</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.2892578515703141</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.3901646447140383</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.3047039550666979</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1.3070288546949771</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.4051408090117765</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1.3474115475076502</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-BC64-4D02-96D3-EDDE2C621C17}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'COMPARISON WITH HMA PENALTY'!$P$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>MPOLD</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:tint val="30000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'COMPARISON WITH HMA PENALTY'!$K$3:$K$32</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'COMPARISON WITH HMA PENALTY'!$K$18:$K$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>mix1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>mix10</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>mix11</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>mix12</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>mix2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>mix3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>mix4</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>mix5</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>mix6</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>mix7</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>mix8</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>mix9</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>AVG HG</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>AVG MIX</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>AVG ALL</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'COMPARISON WITH HMA PENALTY'!$P$3:$P$32</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'COMPARISON WITH HMA PENALTY'!$P$18:$P$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>0.86703360370799532</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.75984251968503946</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.83431812810210337</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.82229320780094151</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.83001939864209495</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.75519237316990118</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.83342077649527813</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.80286241920590951</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.75315922493681553</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.876375275055011</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.82300693240901224</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.86941259068570098</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.81518095074357444</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.82369687660010227</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.81868608954418598</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-BC64-4D02-96D3-EDDE2C621C17}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="441627056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441638864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="441638864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441627056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
   <a:schemeClr val="dk1"/>
@@ -4497,6 +7341,60 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
   <a:schemeClr val="dk1"/>
   <cs:variation>
@@ -5529,6 +8427,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5569,15 +9473,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>423332</xdr:colOff>
+      <xdr:colOff>433915</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>4233</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>529165</xdr:colOff>
+      <xdr:colOff>539748</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>80433</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5593,6 +9497,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457727</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>157690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>566207</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>58208</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>484187</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>608542</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>153458</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8723,7 +12687,7 @@
   <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
